--- a/StructureDefinition-FoodAllergyModelZZ.xlsx
+++ b/StructureDefinition-FoodAllergyModelZZ.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="124">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-11T23:16:15+00:00</t>
+    <t>2022-06-11T23:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -357,6 +357,39 @@
   </si>
   <si>
     <t>http://ohie.org/fhir/food-allergy/ImplementationGuide/food-allergy-zz/ValueSet/FoodAllergyZZVS</t>
+  </si>
+  <si>
+    <t>FoodAllergyModelZZ.reactions.manifestation</t>
+  </si>
+  <si>
+    <t>FoodAllergyModelZZ.reactions.certitude</t>
+  </si>
+  <si>
+    <t>FoodAllergyModelZZ.reactions.exposure</t>
+  </si>
+  <si>
+    <t>FoodAllergyModelZZ.reactions.note</t>
+  </si>
+  <si>
+    <t>FoodAllergyModelZZ.patient</t>
+  </si>
+  <si>
+    <t>FoodAllergyModelZZ.clinicalStatus</t>
+  </si>
+  <si>
+    <t>FoodAllergyModelZZ.verificationStatus</t>
+  </si>
+  <si>
+    <t>FoodAllergyModelZZ.recordedDate</t>
+  </si>
+  <si>
+    <t>FoodAllergyModelZZ.recorder</t>
+  </si>
+  <si>
+    <t>FoodAllergyModelZZ.asserter</t>
+  </si>
+  <si>
+    <t>FoodAllergyModelZZ.reactions</t>
   </si>
 </sst>
 </file>
@@ -661,7 +694,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -670,7 +703,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.23046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -700,7 +733,7 @@
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.71875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="42.23046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -2302,7 +2335,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2310,7 +2343,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>78</v>
@@ -2328,10 +2361,10 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2382,21 +2415,1121 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-FoodAllergyModelZZ.xlsx
+++ b/StructureDefinition-FoodAllergyModelZZ.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="113">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-11T23:25:31+00:00</t>
+    <t>2022-06-11T23:32:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -357,39 +357,6 @@
   </si>
   <si>
     <t>http://ohie.org/fhir/food-allergy/ImplementationGuide/food-allergy-zz/ValueSet/FoodAllergyZZVS</t>
-  </si>
-  <si>
-    <t>FoodAllergyModelZZ.reactions.manifestation</t>
-  </si>
-  <si>
-    <t>FoodAllergyModelZZ.reactions.certitude</t>
-  </si>
-  <si>
-    <t>FoodAllergyModelZZ.reactions.exposure</t>
-  </si>
-  <si>
-    <t>FoodAllergyModelZZ.reactions.note</t>
-  </si>
-  <si>
-    <t>FoodAllergyModelZZ.patient</t>
-  </si>
-  <si>
-    <t>FoodAllergyModelZZ.clinicalStatus</t>
-  </si>
-  <si>
-    <t>FoodAllergyModelZZ.verificationStatus</t>
-  </si>
-  <si>
-    <t>FoodAllergyModelZZ.recordedDate</t>
-  </si>
-  <si>
-    <t>FoodAllergyModelZZ.recorder</t>
-  </si>
-  <si>
-    <t>FoodAllergyModelZZ.asserter</t>
-  </si>
-  <si>
-    <t>FoodAllergyModelZZ.reactions</t>
   </si>
 </sst>
 </file>
@@ -694,7 +661,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -703,7 +670,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.23046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.71875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -733,7 +700,7 @@
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.23046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="39.71875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -2335,7 +2302,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2343,7 +2310,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>78</v>
@@ -2361,10 +2328,10 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2415,10 +2382,10 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2430,1106 +2397,6 @@
         <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
         <v>73</v>
       </c>
     </row>
